--- a/tables/Survey123_app_criteria2.xlsx
+++ b/tables/Survey123_app_criteria2.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAlstad\Documents\Github_C\e-device2\tables\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAlstad\Documents\Github_C\e-deviceIEP\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E26C639-61E8-4E0B-9CBA-90F291A09AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B17A518-5D68-485A-A471-D736215594EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="30810" yWindow="2655" windowWidth="24270" windowHeight="11385" activeTab="1" xr2:uid="{E4A5BE10-DBB8-481B-874B-1BDF43DE8625}"/>
+    <workbookView xWindow="29460" yWindow="795" windowWidth="27960" windowHeight="11385" activeTab="5" xr2:uid="{E4A5BE10-DBB8-481B-874B-1BDF43DE8625}"/>
   </bookViews>
   <sheets>
     <sheet name="Forms_Options" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="256" uniqueCount="147">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="145">
   <si>
     <t>Feature</t>
   </si>
@@ -540,9 +540,6 @@
     <t>Group</t>
   </si>
   <si>
-    <t>Score</t>
-  </si>
-  <si>
     <t>Survey123 HUB</t>
   </si>
   <si>
@@ -610,9 +607,6 @@
   </si>
   <si>
     <t>External Reviews</t>
-  </si>
-  <si>
-    <t>Score (0-3)</t>
   </si>
   <si>
     <t>All Survey123 items (forms, web maps, tabular reference data, survey records) are stored in the respective ArcGIS Survey Hub online account https://survey123.arcgis.com/
@@ -843,7 +837,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="&quot;$&quot;#,##0.00"/>
   </numFmts>
-  <fonts count="18" x14ac:knownFonts="1">
+  <fonts count="17" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -889,14 +883,6 @@
     <font>
       <sz val="11"/>
       <color rgb="FF202124"/>
-      <name val="Calibri"/>
-      <family val="2"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF000000"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
@@ -995,9 +981,9 @@
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="26">
+  <cellXfs count="25">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1008,7 +994,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1017,14 +1003,11 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
@@ -1032,7 +1015,7 @@
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="5"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -1047,22 +1030,22 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" wrapText="1" indent="1"/>
     </xf>
-    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyAlignment="1">
@@ -1071,7 +1054,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -1392,10 +1375,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FEDC525-B77D-4397-8B91-1C5526620A5B}">
-  <dimension ref="A1:G24"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView zoomScale="105" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1408,7 +1391,7 @@
     <col min="7" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:7" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" ht="28.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -1427,11 +1410,8 @@
       <c r="F1" s="1" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="1" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>32</v>
       </c>
@@ -1447,11 +1427,8 @@
       <c r="E2" s="1" t="s">
         <v>65</v>
       </c>
-      <c r="G2" s="1">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="3" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>32</v>
       </c>
@@ -1467,11 +1444,8 @@
       <c r="E3" s="1" t="s">
         <v>67</v>
       </c>
-      <c r="G3" s="1">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>32</v>
       </c>
@@ -1487,11 +1461,8 @@
       <c r="E4" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="G4" s="1">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>32</v>
       </c>
@@ -1511,7 +1482,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>32</v>
       </c>
@@ -1525,7 +1496,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="7" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>32</v>
       </c>
@@ -1533,7 +1504,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="8" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>32</v>
       </c>
@@ -1541,7 +1512,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="9" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>32</v>
       </c>
@@ -1552,13 +1523,13 @@
         <v>63</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>76</v>
       </c>
-      <c r="E9" s="1" t="s">
-        <v>77</v>
-      </c>
-    </row>
-    <row r="10" spans="1:7" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>32</v>
       </c>
@@ -1566,16 +1537,16 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>78</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="16" t="s">
         <v>79</v>
       </c>
-      <c r="E10" s="17" t="s">
-        <v>80</v>
-      </c>
-    </row>
-    <row r="11" spans="1:7" ht="51" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="11" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>32</v>
       </c>
@@ -1586,44 +1557,44 @@
         <v>63</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>81</v>
-      </c>
-    </row>
-    <row r="12" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>84</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>85</v>
       </c>
-      <c r="E12" s="1" t="s">
-        <v>86</v>
-      </c>
-    </row>
-    <row r="13" spans="1:7" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="13" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="1" t="s">
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D13" s="1" t="s">
         <v>68</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>87</v>
-      </c>
-    </row>
-    <row r="14" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="1" t="s">
         <v>5</v>
       </c>
@@ -1631,17 +1602,17 @@
         <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>88</v>
-      </c>
-      <c r="F14" s="19"/>
-    </row>
-    <row r="15" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>87</v>
+      </c>
+      <c r="F14" s="18"/>
+    </row>
+    <row r="15" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="1" t="s">
         <v>5</v>
       </c>
@@ -1652,16 +1623,16 @@
         <v>63</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>89</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>90</v>
       </c>
-      <c r="F15" s="1" t="s">
-        <v>91</v>
-      </c>
-    </row>
-    <row r="16" spans="1:7" ht="54" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="16" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="1" t="s">
         <v>32</v>
       </c>
@@ -1675,10 +1646,10 @@
         <v>70</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>91</v>
+      </c>
+      <c r="F16" t="s">
         <v>92</v>
-      </c>
-      <c r="F16" t="s">
-        <v>93</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -1703,7 +1674,7 @@
         <v>38</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D18" s="1" t="s">
         <v>70</v>
@@ -1722,8 +1693,8 @@
       <c r="D19" s="1" t="s">
         <v>68</v>
       </c>
-      <c r="E19" s="20" t="s">
-        <v>95</v>
+      <c r="E19" s="19" t="s">
+        <v>94</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1748,7 +1719,7 @@
         <v>63</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1762,10 +1733,10 @@
         <v>63</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>82</v>
+      </c>
+      <c r="E22" s="17" t="s">
         <v>83</v>
-      </c>
-      <c r="E22" s="18" t="s">
-        <v>84</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -1779,7 +1750,7 @@
         <v>63</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1801,10 +1772,10 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B4C0BCC4-86A1-4030-90CE-22D0CC9ADA23}">
-  <dimension ref="A1:H10"/>
+  <dimension ref="A1:G10"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E5" sqref="E5"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:G1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1813,12 +1784,11 @@
     <col min="4" max="4" width="41.85546875" style="1" customWidth="1"/>
     <col min="5" max="5" width="71" style="1" customWidth="1"/>
     <col min="6" max="6" width="27.140625" style="1" customWidth="1"/>
-    <col min="7" max="7" width="46.28515625" style="1" customWidth="1"/>
-    <col min="8" max="8" width="21.85546875" style="1" customWidth="1"/>
-    <col min="9" max="16384" width="9.140625" style="1"/>
+    <col min="7" max="7" width="21.85546875" style="1" customWidth="1"/>
+    <col min="8" max="16384" width="9.140625" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>31</v>
       </c>
@@ -1832,34 +1802,31 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>96</v>
       </c>
-      <c r="F1" s="1" t="s">
-        <v>97</v>
-      </c>
-      <c r="G1" s="1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:8" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="1" t="s">
-        <v>100</v>
-      </c>
-    </row>
-    <row r="3" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+        <v>98</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
         <v>40</v>
       </c>
@@ -1867,34 +1834,34 @@
         <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>111</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>112</v>
-      </c>
-      <c r="F3" s="10"/>
-    </row>
-    <row r="4" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+        <v>109</v>
+      </c>
+      <c r="E3" s="9" t="s">
+        <v>110</v>
+      </c>
+      <c r="F3" s="9"/>
+    </row>
+    <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
         <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>119</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>120</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>121</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>122</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="5" spans="1:8" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
         <v>41</v>
       </c>
@@ -1902,17 +1869,17 @@
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F5" s="4"/>
     </row>
-    <row r="6" spans="1:8" s="5" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:7" s="5" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>42</v>
       </c>
@@ -1922,16 +1889,15 @@
       <c r="C6" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="D6" s="21" t="s">
-        <v>102</v>
-      </c>
-      <c r="E6" s="14"/>
+      <c r="D6" s="20" t="s">
+        <v>100</v>
+      </c>
+      <c r="E6" s="13"/>
       <c r="F6" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G6" s="6"/>
-    </row>
-    <row r="7" spans="1:8" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>42</v>
       </c>
@@ -1939,21 +1905,20 @@
         <v>14</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>101</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>102</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>103</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="F7" s="8" t="s">
         <v>104</v>
       </c>
-      <c r="E7" s="7" t="s">
-        <v>105</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>106</v>
-      </c>
-      <c r="G7" s="8"/>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="G7" s="5"/>
+    </row>
+    <row r="8" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>43</v>
       </c>
@@ -1964,11 +1929,10 @@
         <v>63</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>107</v>
-      </c>
-      <c r="G8" s="2"/>
-    </row>
-    <row r="9" spans="1:8" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>105</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
         <v>43</v>
       </c>
@@ -1981,9 +1945,8 @@
       <c r="D9" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="G9" s="9"/>
-    </row>
-    <row r="10" spans="1:8" ht="45" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
         <v>44</v>
       </c>
@@ -1991,10 +1954,10 @@
         <v>39</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
     </row>
   </sheetData>
@@ -2005,10 +1968,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF5D6FA-27AF-4377-9AE3-FE0575D1CE52}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
-    <sheetView topLeftCell="A3" workbookViewId="0">
-      <selection activeCell="B8" sqref="B8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2016,10 +1979,9 @@
     <col min="1" max="3" width="35.140625" customWidth="1"/>
     <col min="4" max="4" width="30" customWidth="1"/>
     <col min="5" max="5" width="25.42578125" customWidth="1"/>
-    <col min="6" max="6" width="27.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -2030,16 +1992,13 @@
         <v>62</v>
       </c>
       <c r="D1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" t="s">
         <v>96</v>
       </c>
-      <c r="E1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" s="5" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" s="5" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>48</v>
       </c>
@@ -2050,24 +2009,24 @@
         <v>63</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" s="5" customFormat="1" ht="254.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="5" customFormat="1" ht="254.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>48</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>21</v>
       </c>
-      <c r="C3" s="22" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="11" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="21" t="s">
+        <v>63</v>
+      </c>
+      <c r="E3" s="10" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
         <v>48</v>
       </c>
@@ -2078,10 +2037,10 @@
         <v>63</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>48</v>
       </c>
@@ -2091,14 +2050,14 @@
       <c r="C5" t="s">
         <v>63</v>
       </c>
-      <c r="D5" s="23" t="s">
-        <v>116</v>
-      </c>
-      <c r="E5" s="24" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="D5" s="22" t="s">
+        <v>114</v>
+      </c>
+      <c r="E5" s="23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="1" t="s">
         <v>45</v>
       </c>
@@ -2109,14 +2068,13 @@
         <v>63</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="F6" s="1"/>
-    </row>
-    <row r="7" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="1" t="s">
         <v>45</v>
       </c>
@@ -2127,10 +2085,10 @@
         <v>63</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="8" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
         <v>45</v>
       </c>
@@ -2138,7 +2096,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -2154,10 +2112,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F6FF90FC-7D54-4396-BEBF-836B30C262EA}">
-  <dimension ref="A1:F8"/>
+  <dimension ref="A1:E8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C16" sqref="C16"/>
+      <selection activeCell="E1" sqref="E1:E1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2166,11 +2124,10 @@
     <col min="2" max="2" width="44.5703125" style="5" customWidth="1"/>
     <col min="3" max="3" width="26.85546875" style="5" customWidth="1"/>
     <col min="4" max="4" width="23" style="5" customWidth="1"/>
-    <col min="5" max="5" width="17.140625" style="5" customWidth="1"/>
-    <col min="6" max="6" width="9.140625" style="5"/>
+    <col min="5" max="5" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
         <v>51</v>
       </c>
@@ -2178,69 +2135,66 @@
         <v>58</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="D1" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>19</v>
       </c>
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="15" t="s">
         <v>61</v>
       </c>
     </row>
-    <row r="3" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A3" s="15" t="s">
+    <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A3" s="14" t="s">
         <v>56</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+    <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A4" s="14" t="s">
         <v>57</v>
       </c>
       <c r="B4" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>24</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A6" s="12" t="s">
+    <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A6" s="11" t="s">
         <v>60</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>63</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A7" s="14" t="s">
         <v>59</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>63</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="16.5" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+    <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
+      <c r="A8" s="14" t="s">
         <v>25</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
     </row>
   </sheetData>
@@ -2251,10 +2205,10 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6C265533-1A49-4A12-B530-D6DEC4C9BC87}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2266,7 +2220,7 @@
     <col min="5" max="5" width="13.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" ht="22.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2277,71 +2231,68 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" t="s">
         <v>96</v>
       </c>
-      <c r="E1" t="s">
-        <v>97</v>
-      </c>
-      <c r="F1" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>26</v>
       </c>
-      <c r="B2" s="13"/>
-      <c r="C2" s="13" t="s">
-        <v>125</v>
+      <c r="B2" s="12"/>
+      <c r="C2" s="12" t="s">
+        <v>123</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>27</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="13" t="s">
-        <v>127</v>
-      </c>
-      <c r="D3" s="11" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" ht="27" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C3" s="12" t="s">
+        <v>125</v>
+      </c>
+      <c r="D3" s="10" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>28</v>
       </c>
       <c r="B4" s="5"/>
-      <c r="C4" s="13" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="5" spans="1:6" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="C4" s="12" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>29</v>
       </c>
       <c r="B5" s="5" t="s">
         <v>63</v>
       </c>
-      <c r="C5" s="13" t="s">
+      <c r="C5" s="12" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="12" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="12"/>
+      <c r="C6" s="12" t="s">
+        <v>129</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>130</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="13" t="s">
-        <v>30</v>
-      </c>
-      <c r="B6" s="13"/>
-      <c r="C6" s="13" t="s">
-        <v>131</v>
-      </c>
-      <c r="D6" s="13" t="s">
-        <v>132</v>
       </c>
     </row>
   </sheetData>
@@ -2351,10 +2302,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41DAF0C1-5840-4498-93BE-7596EB0B3995}">
-  <dimension ref="A1:H11"/>
+  <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E7" sqref="E7"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F1" sqref="F1:F1048576"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2364,10 +2315,9 @@
     <col min="3" max="3" width="11.7109375" customWidth="1"/>
     <col min="4" max="4" width="17.28515625" customWidth="1"/>
     <col min="5" max="5" width="46.140625" customWidth="1"/>
-    <col min="6" max="6" width="17.7109375" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:8" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" ht="45.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -2375,119 +2325,110 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>95</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>96</v>
       </c>
-      <c r="E1" s="5" t="s">
-        <v>97</v>
-      </c>
-      <c r="F1" s="5" t="s">
-        <v>98</v>
-      </c>
+      <c r="F1" s="5"/>
       <c r="G1" s="5"/>
-      <c r="H1" s="5"/>
-    </row>
-    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
       <c r="F2" s="5"/>
       <c r="G2" s="5"/>
-      <c r="H2" s="5"/>
-    </row>
-    <row r="3" spans="1:8" ht="30" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
       <c r="F3" s="5"/>
       <c r="G3" s="5"/>
-      <c r="H3" s="5"/>
-    </row>
-    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
         <v>52</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
       <c r="F4" s="5"/>
       <c r="G4" s="5"/>
-      <c r="H4" s="5"/>
-    </row>
-    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
       <c r="E5" s="5"/>
       <c r="F5" s="5"/>
       <c r="G5" s="5"/>
-      <c r="H5" s="5"/>
-    </row>
-    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
         <v>53</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
       <c r="E6" s="5"/>
       <c r="F6" s="5"/>
       <c r="G6" s="5"/>
-      <c r="H6" s="5"/>
-    </row>
-    <row r="7" spans="1:8" ht="222" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="1:7" ht="222" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
         <v>54</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
-      <c r="H7" s="5"/>
-    </row>
-    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
-      <c r="E11" s="25"/>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="E11" s="24"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/tables/Survey123_app_criteria2.xlsx
+++ b/tables/Survey123_app_criteria2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26327"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAlstad\Documents\Github_C\e-deviceIEP\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6B17A518-5D68-485A-A471-D736215594EB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AF1E46-8D2D-4BBF-A13A-6341ACD422DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="29460" yWindow="795" windowWidth="27960" windowHeight="11385" activeTab="5" xr2:uid="{E4A5BE10-DBB8-481B-874B-1BDF43DE8625}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E4A5BE10-DBB8-481B-874B-1BDF43DE8625}"/>
   </bookViews>
   <sheets>
     <sheet name="Forms_Options" sheetId="1" r:id="rId1"/>
@@ -495,10 +495,6 @@
     </r>
   </si>
   <si>
-    <t xml:space="preserve">Uses device navigation: phone app or GPS device; Data can open in data in ArcGIS maps directly; Can change base map; Default is current location; Can tap the map to change location [test](https://doc.arcgis.com/en/survey123/browser/analyze-results/viewresults.htm#:~:text=Under%20the%20title%20for%20your,geodatabase%20and%20download%20your%20data)
-</t>
-  </si>
-  <si>
     <t>Web Designer</t>
   </si>
   <si>
@@ -529,9 +525,6 @@
   </si>
   <si>
     <t>This can be done with Web Designer using the ‘Set rule function’; However, in Web Designer, this function is limited to Single choice, Dropdown, Likert scale, and Rating questions</t>
-  </si>
-  <si>
-    <t>[tst4](https://support.esri.com/en/technical-article/000022942)</t>
   </si>
   <si>
     <t>External</t>
@@ -828,6 +821,13 @@
   </si>
   <si>
     <t>In trial demo: User noted that it was not possible to view the full list of fish lengths, and it was not easy to edit responses ‘on-the-fly’) [See Yolo BiPass Survey123 Demo](#yoldem))</t>
+  </si>
+  <si>
+    <t>[esri_techsupport](https://support.esri.com/en/technical-article/000022942)</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Uses device navigation: phone app or GPS device; Data can open in data in ArcGIS maps directly; Can change base map; Default is current location; Can tap the map to change location [arcgis_techsupport](https://doc.arcgis.com/en/survey123/browser/analyze-results/viewresults.htm#:~:text=Under%20the%20title%20for%20your,geodatabase%20and%20download%20your%20data)
+</t>
   </si>
 </sst>
 </file>
@@ -1377,8 +1377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FEDC525-B77D-4397-8B91-1C5526620A5B}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView zoomScale="105" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:G1048576"/>
+    <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
+      <selection activeCell="E2" sqref="E2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1405,10 +1405,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>74</v>
+        <v>72</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>73</v>
+        <v>71</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1425,7 +1425,7 @@
         <v>64</v>
       </c>
       <c r="E2" s="1" t="s">
-        <v>65</v>
+        <v>144</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1439,10 +1439,10 @@
         <v>63</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>65</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>66</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1456,10 +1456,10 @@
         <v>63</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>67</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>68</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -1473,13 +1473,13 @@
         <v>63</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>69</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>70</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>71</v>
-      </c>
       <c r="F5" t="s">
-        <v>72</v>
+        <v>143</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -1493,7 +1493,7 @@
         <v>63</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -1523,10 +1523,10 @@
         <v>63</v>
       </c>
       <c r="D9" s="1" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E9" s="1" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1537,13 +1537,13 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>75</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>76</v>
+      </c>
+      <c r="E10" s="16" t="s">
         <v>77</v>
-      </c>
-      <c r="D10" s="1" t="s">
-        <v>78</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>79</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -1557,7 +1557,7 @@
         <v>63</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1565,16 +1565,16 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C12" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D12" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E12" s="1" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1582,16 +1582,16 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1602,13 +1602,13 @@
         <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="F14" s="18"/>
     </row>
@@ -1623,13 +1623,13 @@
         <v>63</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>87</v>
+      </c>
+      <c r="F15" s="1" t="s">
         <v>88</v>
-      </c>
-      <c r="E15" s="1" t="s">
-        <v>89</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -1643,13 +1643,13 @@
         <v>63</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="F16" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -1663,7 +1663,7 @@
         <v>63</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -1674,10 +1674,10 @@
         <v>38</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -1691,10 +1691,10 @@
         <v>63</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1719,7 +1719,7 @@
         <v>63</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1733,10 +1733,10 @@
         <v>63</v>
       </c>
       <c r="D22" s="1" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="E22" s="17" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -1750,7 +1750,7 @@
         <v>63</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1802,10 +1802,10 @@
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1813,17 +1813,17 @@
         <v>40</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C2" s="1" t="s">
         <v>63</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="1" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
@@ -1834,13 +1834,13 @@
         <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D3" s="1" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="F3" s="9"/>
     </row>
@@ -1849,16 +1849,16 @@
         <v>40</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>117</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>118</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>119</v>
-      </c>
-      <c r="C4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="1" t="s">
-        <v>120</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>121</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1869,13 +1869,13 @@
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="F5" s="4"/>
     </row>
@@ -1890,11 +1890,11 @@
         <v>63</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1905,16 +1905,16 @@
         <v>14</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="5" t="s">
+        <v>100</v>
+      </c>
+      <c r="E7" s="7" t="s">
         <v>101</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="F7" s="8" t="s">
         <v>102</v>
-      </c>
-      <c r="E7" s="7" t="s">
-        <v>103</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>104</v>
       </c>
       <c r="G7" s="5"/>
     </row>
@@ -1929,7 +1929,7 @@
         <v>63</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1954,10 +1954,10 @@
         <v>39</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
     </row>
   </sheetData>
@@ -1992,10 +1992,10 @@
         <v>62</v>
       </c>
       <c r="D1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="5" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2009,7 +2009,7 @@
         <v>63</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="5" customFormat="1" ht="254.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2023,7 +2023,7 @@
         <v>63</v>
       </c>
       <c r="E3" s="10" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2037,7 +2037,7 @@
         <v>63</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2051,10 +2051,10 @@
         <v>63</v>
       </c>
       <c r="D5" s="22" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="E5" s="23" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
@@ -2068,10 +2068,10 @@
         <v>63</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="E6" s="1" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
     </row>
     <row r="7" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2085,7 +2085,7 @@
         <v>63</v>
       </c>
       <c r="D7" s="5" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
     </row>
     <row r="8" spans="1:5" ht="93" customHeight="1" x14ac:dyDescent="0.25">
@@ -2096,7 +2096,7 @@
         <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="D8" s="1"/>
     </row>
@@ -2135,10 +2135,10 @@
         <v>58</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2178,7 +2178,7 @@
         <v>63</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -2194,7 +2194,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
     </row>
   </sheetData>
@@ -2231,10 +2231,10 @@
         <v>1</v>
       </c>
       <c r="D1" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E1" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2243,10 +2243,10 @@
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2257,10 +2257,10 @@
         <v>63</v>
       </c>
       <c r="C3" s="12" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="D3" s="10" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -2269,7 +2269,7 @@
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="12" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2280,7 +2280,7 @@
         <v>63</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2289,10 +2289,10 @@
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="12" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D6" s="12" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2304,8 +2304,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{41DAF0C1-5840-4498-93BE-7596EB0B3995}">
   <dimension ref="A1:G11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M7" sqref="M7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2325,13 +2325,13 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D1" s="5" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="E1" s="5" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
@@ -2341,10 +2341,10 @@
         <v>52</v>
       </c>
       <c r="B2" s="5" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -2356,10 +2356,10 @@
         <v>52</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="C3" s="5" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -2371,10 +2371,10 @@
         <v>52</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="C4" s="5" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -2386,7 +2386,7 @@
         <v>53</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -2399,7 +2399,7 @@
         <v>53</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -2412,12 +2412,12 @@
         <v>54</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>

--- a/tables/Survey123_app_criteria2.xlsx
+++ b/tables/Survey123_app_criteria2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAlstad\Documents\Github_C\e-deviceIEP\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{11AF1E46-8D2D-4BBF-A13A-6341ACD422DC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36EE2777-7C5A-458C-824F-3D135A6AA525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E4A5BE10-DBB8-481B-874B-1BDF43DE8625}"/>
   </bookViews>
@@ -1378,7 +1378,7 @@
   <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
-      <selection activeCell="E2" sqref="E2"/>
+      <selection activeCell="E11" sqref="E11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>

--- a/tables/Survey123_app_criteria2.xlsx
+++ b/tables/Survey123_app_criteria2.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26529"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\KAlstad\Documents\Github_C\e-deviceIEP\tables\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{36EE2777-7C5A-458C-824F-3D135A6AA525}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F13810B0-3857-44A6-8599-F753FC2128D4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{E4A5BE10-DBB8-481B-874B-1BDF43DE8625}"/>
+    <workbookView xWindow="16335" yWindow="-16395" windowWidth="29040" windowHeight="15840" xr2:uid="{E4A5BE10-DBB8-481B-874B-1BDF43DE8625}"/>
   </bookViews>
   <sheets>
     <sheet name="Forms_Options" sheetId="1" r:id="rId1"/>
@@ -41,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="250" uniqueCount="145">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="251" uniqueCount="145">
   <si>
     <t>Feature</t>
   </si>
@@ -167,9 +167,6 @@
   </si>
   <si>
     <t>Permissions Management</t>
-  </si>
-  <si>
-    <t>Font adjustment/Speak-to-text</t>
   </si>
   <si>
     <t>Other IEP Survey needs</t>
@@ -828,6 +825,9 @@
   <si>
     <t xml:space="preserve">Uses device navigation: phone app or GPS device; Data can open in data in ArcGIS maps directly; Can change base map; Default is current location; Can tap the map to change location [arcgis_techsupport](https://doc.arcgis.com/en/survey123/browser/analyze-results/viewresults.htm#:~:text=Under%20the%20title%20for%20your,geodatabase%20and%20download%20your%20data)
 </t>
+  </si>
+  <si>
+    <t>Font adjustment/ Speak-to-text</t>
   </si>
 </sst>
 </file>
@@ -1377,8 +1377,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FEDC525-B77D-4397-8B91-1C5526620A5B}">
   <dimension ref="A1:F24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="105" workbookViewId="0">
-      <selection activeCell="E11" sqref="E11"/>
+    <sheetView tabSelected="1" topLeftCell="A15" zoomScale="105" workbookViewId="0">
+      <selection activeCell="B24" sqref="B24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1399,16 +1399,16 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="F1" s="1" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="2" spans="1:6" ht="64.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1419,13 +1419,13 @@
         <v>2</v>
       </c>
       <c r="C2" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D2" s="1" t="s">
         <v>63</v>
       </c>
-      <c r="D2" s="1" t="s">
-        <v>64</v>
-      </c>
       <c r="E2" s="1" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1433,16 +1433,16 @@
         <v>32</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="1" t="s">
         <v>65</v>
-      </c>
-      <c r="E3" s="1" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="44.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -1450,16 +1450,16 @@
         <v>32</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" s="1" t="s">
+        <v>66</v>
+      </c>
+      <c r="E4" s="1" t="s">
         <v>67</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -1470,16 +1470,16 @@
         <v>6</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="E5" s="1" t="s">
         <v>69</v>
       </c>
-      <c r="E5" s="1" t="s">
-        <v>70</v>
-      </c>
       <c r="F5" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -1490,10 +1490,10 @@
         <v>6</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -1501,7 +1501,7 @@
         <v>32</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1520,13 +1520,13 @@
         <v>9</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="E9" s="1" t="s">
         <v>73</v>
-      </c>
-      <c r="E9" s="1" t="s">
-        <v>74</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1537,13 +1537,13 @@
         <v>9</v>
       </c>
       <c r="C10" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="1" t="s">
         <v>75</v>
       </c>
-      <c r="D10" s="1" t="s">
+      <c r="E10" s="16" t="s">
         <v>76</v>
-      </c>
-      <c r="E10" s="16" t="s">
-        <v>77</v>
       </c>
     </row>
     <row r="11" spans="1:6" ht="51" customHeight="1" x14ac:dyDescent="0.25">
@@ -1554,10 +1554,10 @@
         <v>10</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D11" s="1" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1565,16 +1565,16 @@
         <v>5</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D12" s="1" t="s">
+        <v>81</v>
+      </c>
+      <c r="E12" s="1" t="s">
         <v>82</v>
-      </c>
-      <c r="E12" s="1" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="39.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -1582,16 +1582,16 @@
         <v>5</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D13" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E13" s="1" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -1602,13 +1602,13 @@
         <v>4</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D14" s="1" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
       <c r="F14" s="18"/>
     </row>
@@ -1620,16 +1620,16 @@
         <v>4</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D15" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="E15" s="1" t="s">
         <v>86</v>
       </c>
-      <c r="E15" s="1" t="s">
+      <c r="F15" s="1" t="s">
         <v>87</v>
-      </c>
-      <c r="F15" s="1" t="s">
-        <v>88</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -1640,16 +1640,16 @@
         <v>7</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D16" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="E16" s="1" t="s">
+        <v>88</v>
+      </c>
+      <c r="F16" t="s">
         <v>89</v>
-      </c>
-      <c r="F16" t="s">
-        <v>90</v>
       </c>
     </row>
     <row r="17" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -1660,10 +1660,10 @@
         <v>7</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D17" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="18" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -1671,13 +1671,13 @@
         <v>32</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D18" s="1" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="19" spans="1:5" ht="54" customHeight="1" x14ac:dyDescent="0.25">
@@ -1685,80 +1685,80 @@
         <v>32</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D19" s="1" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="E19" s="19" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="20" spans="1:5" ht="53.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B20" s="1" t="s">
         <v>34</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="21" spans="1:5" ht="57" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B21" t="s">
         <v>8</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D21" s="1" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
     <row r="22" spans="1:5" ht="48.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="1" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B22" s="1" t="s">
         <v>3</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D22" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="E22" s="17" t="s">
         <v>80</v>
-      </c>
-      <c r="E22" s="17" t="s">
-        <v>81</v>
       </c>
     </row>
     <row r="23" spans="1:5" ht="51" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B23" t="s">
         <v>11</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D23" s="1" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="24" spans="1:5" ht="46.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="1" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>35</v>
+        <v>144</v>
       </c>
     </row>
   </sheetData>
@@ -1796,151 +1796,151 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="E1" s="1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" s="1" t="s">
         <v>93</v>
-      </c>
-      <c r="F1" s="1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:7" ht="72.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" s="3" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="E2" s="3"/>
       <c r="F2" s="1" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="3" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B3" s="1" t="s">
         <v>17</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D3" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="E3" s="9" t="s">
         <v>107</v>
-      </c>
-      <c r="E3" s="9" t="s">
-        <v>108</v>
       </c>
       <c r="F3" s="9"/>
     </row>
     <row r="4" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A4" s="1" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B4" s="1" t="s">
+        <v>116</v>
+      </c>
+      <c r="C4" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D4" s="1" t="s">
         <v>117</v>
       </c>
-      <c r="C4" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D4" s="1" t="s">
+      <c r="E4" s="1" t="s">
         <v>118</v>
-      </c>
-      <c r="E4" s="1" t="s">
-        <v>119</v>
       </c>
     </row>
     <row r="5" spans="1:7" ht="73.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="1" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B5" s="1" t="s">
         <v>12</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
       <c r="D5" s="1" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="E5" s="4" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
       <c r="F5" s="4"/>
     </row>
     <row r="6" spans="1:7" s="5" customFormat="1" ht="60.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="5" t="s">
         <v>13</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D6" s="20" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="E6" s="13"/>
       <c r="F6" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="7" spans="1:7" ht="75.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B7" s="5" t="s">
         <v>14</v>
       </c>
       <c r="C7" s="5" t="s">
+        <v>98</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>99</v>
       </c>
-      <c r="D7" s="5" t="s">
+      <c r="E7" s="7" t="s">
         <v>100</v>
       </c>
-      <c r="E7" s="7" t="s">
+      <c r="F7" s="8" t="s">
         <v>101</v>
-      </c>
-      <c r="F7" s="8" t="s">
-        <v>102</v>
       </c>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" ht="37.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>15</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D8" s="6" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
     </row>
     <row r="9" spans="1:7" ht="42.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="1" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>16</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D9" s="2" t="s">
         <v>16</v>
@@ -1948,16 +1948,16 @@
     </row>
     <row r="10" spans="1:7" ht="45" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="1" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="E10" s="1" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
   </sheetData>
@@ -1968,20 +1968,20 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8DF5D6FA-27AF-4377-9AE3-FE0575D1CE52}">
-  <dimension ref="A1:E8"/>
+  <dimension ref="A1:F8"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F1" sqref="F1:F1048576"/>
+    <sheetView topLeftCell="A3" workbookViewId="0">
+      <selection activeCell="D11" sqref="D11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="3" width="35.140625" customWidth="1"/>
-    <col min="4" max="4" width="30" customWidth="1"/>
-    <col min="5" max="5" width="25.42578125" customWidth="1"/>
+    <col min="1" max="4" width="35.140625" customWidth="1"/>
+    <col min="5" max="5" width="30" customWidth="1"/>
+    <col min="6" max="6" width="25.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>31</v>
       </c>
@@ -1989,121 +1989,126 @@
         <v>0</v>
       </c>
       <c r="C1" s="1" t="s">
-        <v>62</v>
-      </c>
-      <c r="D1" t="s">
+        <v>61</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E1" t="s">
+        <v>92</v>
+      </c>
+      <c r="F1" t="s">
         <v>93</v>
       </c>
-      <c r="E1" t="s">
-        <v>94</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="5" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:6" s="5" customFormat="1" ht="43.5" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B2" s="5" t="s">
         <v>20</v>
       </c>
       <c r="C2" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="3" spans="1:5" s="5" customFormat="1" ht="254.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" s="5" customFormat="1" ht="254.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B3" s="5" t="s">
         <v>21</v>
       </c>
       <c r="C3" s="21" t="s">
-        <v>63</v>
-      </c>
-      <c r="E3" s="10" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
+        <v>62</v>
+      </c>
+      <c r="D3" s="21"/>
+      <c r="F3" s="10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="54.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B4" t="s">
         <v>22</v>
       </c>
       <c r="C4" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D4" s="1" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="86.25" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B5" t="s">
         <v>23</v>
       </c>
       <c r="C5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="D5" s="22" t="s">
+        <v>111</v>
+      </c>
+      <c r="F5" s="23" t="s">
         <v>112</v>
       </c>
-      <c r="E5" s="23" t="s">
+    </row>
+    <row r="6" spans="1:6" ht="48" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A6" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B6" s="1" t="s">
+        <v>48</v>
+      </c>
+      <c r="C6" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="F6" s="1" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A7" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="B7" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>62</v>
+      </c>
+      <c r="D7" s="5" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="6" spans="1:5" ht="48" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A6" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B6" s="1" t="s">
-        <v>49</v>
-      </c>
-      <c r="C6" s="1" t="s">
-        <v>63</v>
-      </c>
-      <c r="D6" s="1" t="s">
-        <v>115</v>
-      </c>
-      <c r="E6" s="1" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" ht="65.25" customHeight="1" x14ac:dyDescent="0.25">
-      <c r="A7" s="1" t="s">
-        <v>45</v>
-      </c>
-      <c r="B7" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="C7" t="s">
-        <v>63</v>
-      </c>
-      <c r="D7" s="5" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" ht="93" customHeight="1" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:6" ht="93" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="1" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="B8" t="s">
         <v>18</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="D8" s="1"/>
+      <c r="E8" s="1"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="D5" r:id="rId1" display="https://community.esri.com/t5/arcgis-survey123-blog/whats-new-in-arcgis-survey123-september-2021/ba-p/1099421" xr:uid="{BC7E6827-4221-43DD-BA69-DDD188398044}"/>
-    <hyperlink ref="E5" r:id="rId2" location=":~:text=Draw%20and%20annotate%20are%20staple,a%20snapshot%20of%20a%20map." xr:uid="{6491E96B-3F1B-4837-8D29-20CB6EC9FFAF}"/>
+    <hyperlink ref="F5" r:id="rId2" location=":~:text=Draw%20and%20annotate%20are%20staple,a%20snapshot%20of%20a%20map." xr:uid="{6491E96B-3F1B-4837-8D29-20CB6EC9FFAF}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" r:id="rId3"/>
@@ -2129,16 +2134,16 @@
   <sheetData>
     <row r="1" spans="1:4" ht="21.75" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A1" s="5" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B1" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C1" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="D1" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="D1" s="5" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -2146,23 +2151,23 @@
         <v>19</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
     </row>
     <row r="3" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A3" s="14" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A4" s="14" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="B4" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -2172,21 +2177,21 @@
     </row>
     <row r="6" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A6" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C6" s="5" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
       <c r="A7" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.5" x14ac:dyDescent="0.3">
@@ -2194,7 +2199,7 @@
         <v>25</v>
       </c>
       <c r="B8" s="5" t="s">
-        <v>141</v>
+        <v>140</v>
       </c>
     </row>
   </sheetData>
@@ -2225,16 +2230,16 @@
         <v>0</v>
       </c>
       <c r="B1" s="1" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C1" s="1" t="s">
         <v>1</v>
       </c>
       <c r="D1" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" t="s">
         <v>93</v>
-      </c>
-      <c r="E1" t="s">
-        <v>94</v>
       </c>
     </row>
     <row r="2" spans="1:5" ht="27.75" customHeight="1" x14ac:dyDescent="0.25">
@@ -2243,10 +2248,10 @@
       </c>
       <c r="B2" s="12"/>
       <c r="C2" s="12" t="s">
+        <v>120</v>
+      </c>
+      <c r="D2" s="5" t="s">
         <v>121</v>
-      </c>
-      <c r="D2" s="5" t="s">
-        <v>122</v>
       </c>
     </row>
     <row r="3" spans="1:5" ht="34.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2254,13 +2259,13 @@
         <v>27</v>
       </c>
       <c r="B3" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="12" t="s">
+        <v>122</v>
+      </c>
+      <c r="D3" s="10" t="s">
         <v>123</v>
-      </c>
-      <c r="D3" s="10" t="s">
-        <v>124</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="27" customHeight="1" x14ac:dyDescent="0.25">
@@ -2269,7 +2274,7 @@
       </c>
       <c r="B4" s="5"/>
       <c r="C4" s="12" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="49.5" customHeight="1" x14ac:dyDescent="0.25">
@@ -2277,10 +2282,10 @@
         <v>29</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C5" s="12" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="6" spans="1:5" ht="35.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -2289,10 +2294,10 @@
       </c>
       <c r="B6" s="12"/>
       <c r="C6" s="12" t="s">
+        <v>126</v>
+      </c>
+      <c r="D6" s="12" t="s">
         <v>127</v>
-      </c>
-      <c r="D6" s="12" t="s">
-        <v>128</v>
       </c>
     </row>
   </sheetData>
@@ -2325,26 +2330,26 @@
         <v>1</v>
       </c>
       <c r="C1" s="5" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
       <c r="D1" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="E1" s="5" t="s">
         <v>93</v>
-      </c>
-      <c r="E1" s="5" t="s">
-        <v>94</v>
       </c>
       <c r="F1" s="5"/>
       <c r="G1" s="5"/>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B2" s="5" t="s">
+        <v>128</v>
+      </c>
+      <c r="C2" s="5" t="s">
         <v>129</v>
-      </c>
-      <c r="C2" s="5" t="s">
-        <v>130</v>
       </c>
       <c r="D2" s="5"/>
       <c r="E2" s="5"/>
@@ -2353,13 +2358,13 @@
     </row>
     <row r="3" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A3" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B3" s="5" t="s">
+        <v>130</v>
+      </c>
+      <c r="C3" s="5" t="s">
         <v>131</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>132</v>
       </c>
       <c r="D3" s="5"/>
       <c r="E3" s="5"/>
@@ -2368,13 +2373,13 @@
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="5" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B4" s="5" t="s">
+        <v>132</v>
+      </c>
+      <c r="C4" s="5" t="s">
         <v>133</v>
-      </c>
-      <c r="C4" s="5" t="s">
-        <v>134</v>
       </c>
       <c r="D4" s="5"/>
       <c r="E4" s="5"/>
@@ -2383,10 +2388,10 @@
     </row>
     <row r="5" spans="1:7" ht="30" x14ac:dyDescent="0.25">
       <c r="A5" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B5" s="5" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C5" s="5"/>
       <c r="D5" s="5"/>
@@ -2396,10 +2401,10 @@
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="5" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B6" s="5" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
       <c r="C6" s="5"/>
       <c r="D6" s="5"/>
@@ -2409,22 +2414,22 @@
     </row>
     <row r="7" spans="1:7" ht="222" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="5" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B7" s="5" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C7" s="5"/>
       <c r="D7" s="5"/>
       <c r="E7" s="5" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="F7" s="5"/>
       <c r="G7" s="5"/>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="5" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
